--- a/sql/pyramid_nytc/Pyramid-psql/zoo.xlsx
+++ b/sql/pyramid_nytc/Pyramid-psql/zoo.xlsx
@@ -524,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -640,6 +640,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,824 +939,923 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="3.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="9">
+    <row r="1" spans="1:17">
+      <c r="B1" s="41">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="C1" s="41">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
+      <c r="D1" s="41">
+        <v>2</v>
+      </c>
+      <c r="E1" s="41">
+        <v>3</v>
+      </c>
+      <c r="F1" s="41">
         <v>4</v>
       </c>
-      <c r="D1" s="16">
+      <c r="G1" s="41">
         <v>5</v>
       </c>
-      <c r="E1" s="13">
+      <c r="H1" s="41">
+        <v>6</v>
+      </c>
+      <c r="I1" s="41">
+        <v>7</v>
+      </c>
+      <c r="J1" s="41">
+        <v>8</v>
+      </c>
+      <c r="K1" s="41">
+        <v>9</v>
+      </c>
+      <c r="L1" s="41">
+        <v>10</v>
+      </c>
+      <c r="M1" s="41">
+        <v>11</v>
+      </c>
+      <c r="N1" s="41">
+        <v>12</v>
+      </c>
+      <c r="O1" s="41">
+        <v>13</v>
+      </c>
+      <c r="P1" s="41">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="41">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13">
         <v>16</v>
       </c>
-      <c r="F1" s="7">
+      <c r="G2" s="7">
         <v>17</v>
       </c>
-      <c r="G1" s="9">
+      <c r="H2" s="9">
         <v>20</v>
       </c>
-      <c r="H1" s="29">
+      <c r="I2" s="29">
         <v>21</v>
       </c>
-      <c r="I1" s="13">
+      <c r="J2" s="13">
         <v>64</v>
       </c>
-      <c r="J1" s="7">
+      <c r="K2" s="7">
         <v>65</v>
       </c>
-      <c r="K1" s="9">
+      <c r="L2" s="9">
         <v>68</v>
       </c>
-      <c r="L1" s="16">
+      <c r="M2" s="16">
         <v>69</v>
       </c>
-      <c r="M1" s="13">
+      <c r="N2" s="13">
         <v>80</v>
       </c>
-      <c r="N1" s="7">
+      <c r="O2" s="7">
         <v>81</v>
       </c>
-      <c r="O1" s="9">
+      <c r="P2" s="9">
         <v>84</v>
       </c>
-      <c r="P1" s="8">
+      <c r="Q2" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="5">
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D3" s="5">
         <v>6</v>
       </c>
-      <c r="D2" s="17">
+      <c r="E3" s="17">
         <v>7</v>
       </c>
-      <c r="E2" s="14">
+      <c r="F3" s="14">
         <v>18</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G3" s="2">
         <v>19</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H3" s="5">
         <v>22</v>
       </c>
-      <c r="H2" s="30">
+      <c r="I3" s="30">
         <v>23</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J3" s="14">
         <v>66</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K3" s="2">
         <v>67</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L3" s="5">
         <v>70</v>
       </c>
-      <c r="L2" s="17">
+      <c r="M3" s="17">
         <v>71</v>
       </c>
-      <c r="M2" s="14">
+      <c r="N3" s="14">
         <v>82</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O3" s="2">
         <v>83</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P3" s="5">
         <v>86</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q3" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="9">
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
         <v>8</v>
       </c>
-      <c r="B3" s="7">
+      <c r="C4" s="7">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D4" s="9">
         <v>12</v>
       </c>
-      <c r="D3" s="16">
+      <c r="E4" s="16">
         <v>13</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F4" s="13">
         <v>24</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G4" s="7">
         <v>25</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H4" s="9">
         <v>28</v>
       </c>
-      <c r="H3" s="29">
+      <c r="I4" s="29">
         <v>29</v>
       </c>
-      <c r="I3" s="13">
+      <c r="J4" s="13">
         <v>72</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K4" s="7">
         <v>73</v>
       </c>
-      <c r="K3" s="9">
+      <c r="L4" s="9">
         <v>76</v>
       </c>
-      <c r="L3" s="16">
+      <c r="M4" s="16">
         <v>77</v>
       </c>
-      <c r="M3" s="13">
+      <c r="N4" s="13">
         <v>88</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O4" s="7">
         <v>89</v>
       </c>
-      <c r="O3" s="9">
+      <c r="P4" s="9">
         <v>92</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q4" s="8">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="24">
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24">
         <v>10</v>
       </c>
-      <c r="B4" s="25">
+      <c r="C5" s="25">
         <v>11</v>
       </c>
-      <c r="C4" s="24">
+      <c r="D5" s="24">
         <v>14</v>
       </c>
-      <c r="D4" s="26">
+      <c r="E5" s="26">
         <v>15</v>
       </c>
-      <c r="E4" s="27">
+      <c r="F5" s="27">
         <v>26</v>
       </c>
-      <c r="F4" s="25">
+      <c r="G5" s="25">
         <v>27</v>
       </c>
-      <c r="G4" s="24">
+      <c r="H5" s="24">
         <v>30</v>
       </c>
-      <c r="H4" s="31">
+      <c r="I5" s="31">
         <v>31</v>
       </c>
-      <c r="I4" s="27">
+      <c r="J5" s="27">
         <v>74</v>
       </c>
-      <c r="J4" s="25">
+      <c r="K5" s="25">
         <v>75</v>
       </c>
-      <c r="K4" s="24">
+      <c r="L5" s="24">
         <v>78</v>
       </c>
-      <c r="L4" s="26">
+      <c r="M5" s="26">
         <v>79</v>
       </c>
-      <c r="M4" s="27">
+      <c r="N5" s="27">
         <v>90</v>
       </c>
-      <c r="N4" s="25">
+      <c r="O5" s="25">
         <v>91</v>
       </c>
-      <c r="O4" s="24">
+      <c r="P5" s="24">
         <v>94</v>
       </c>
-      <c r="P4" s="28">
+      <c r="Q5" s="28">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="19">
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19">
         <v>32</v>
       </c>
-      <c r="B5" s="20">
+      <c r="C6" s="20">
         <v>33</v>
       </c>
-      <c r="C5" s="19">
+      <c r="D6" s="19">
         <v>36</v>
       </c>
-      <c r="D5" s="21">
+      <c r="E6" s="21">
         <v>37</v>
       </c>
-      <c r="E5" s="22">
+      <c r="F6" s="22">
         <v>48</v>
       </c>
-      <c r="F5" s="20">
+      <c r="G6" s="20">
         <v>49</v>
       </c>
-      <c r="G5" s="19">
+      <c r="H6" s="19">
         <v>52</v>
       </c>
-      <c r="H5" s="32">
+      <c r="I6" s="32">
         <v>53</v>
       </c>
-      <c r="I5" s="22">
+      <c r="J6" s="22">
         <v>96</v>
       </c>
-      <c r="J5" s="20">
+      <c r="K6" s="20">
         <v>97</v>
       </c>
-      <c r="K5" s="19">
+      <c r="L6" s="19">
         <v>100</v>
       </c>
-      <c r="L5" s="21">
+      <c r="M6" s="21">
         <v>101</v>
       </c>
-      <c r="M5" s="22">
+      <c r="N6" s="22">
         <v>112</v>
       </c>
-      <c r="N5" s="20">
+      <c r="O6" s="20">
         <v>113</v>
       </c>
-      <c r="O5" s="19">
+      <c r="P6" s="19">
         <v>116</v>
       </c>
-      <c r="P5" s="23">
+      <c r="Q6" s="23">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="5">
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
         <v>34</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C7" s="2">
         <v>35</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D7" s="5">
         <v>38</v>
       </c>
-      <c r="D6" s="17">
+      <c r="E7" s="17">
         <v>39</v>
       </c>
-      <c r="E6" s="14">
+      <c r="F7" s="14">
         <v>50</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G7" s="2">
         <v>51</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H7" s="5">
         <v>54</v>
       </c>
-      <c r="H6" s="30">
+      <c r="I7" s="30">
         <v>55</v>
       </c>
-      <c r="I6" s="14">
+      <c r="J7" s="14">
         <v>98</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K7" s="2">
         <v>99</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L7" s="5">
         <v>102</v>
       </c>
-      <c r="L6" s="17">
+      <c r="M7" s="17">
         <v>103</v>
       </c>
-      <c r="M6" s="14">
+      <c r="N7" s="14">
         <v>114</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O7" s="2">
         <v>115</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P7" s="5">
         <v>118</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q7" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="9">
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
         <v>40</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C8" s="7">
         <v>41</v>
       </c>
-      <c r="C7" s="9">
+      <c r="D8" s="9">
         <v>44</v>
       </c>
-      <c r="D7" s="16">
+      <c r="E8" s="16">
         <v>45</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F8" s="13">
         <v>56</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G8" s="7">
         <v>57</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H8" s="9">
         <v>60</v>
       </c>
-      <c r="H7" s="29">
+      <c r="I8" s="29">
         <v>61</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J8" s="13">
         <v>104</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K8" s="7">
         <v>105</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L8" s="9">
         <v>108</v>
       </c>
-      <c r="L7" s="16">
+      <c r="M8" s="16">
         <v>109</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N8" s="13">
         <v>120</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O8" s="7">
         <v>121</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P8" s="9">
         <v>124</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q8" s="8">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="34">
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="34">
         <v>42</v>
       </c>
-      <c r="B8" s="35">
+      <c r="C9" s="35">
         <v>43</v>
       </c>
-      <c r="C8" s="34">
+      <c r="D9" s="34">
         <v>46</v>
       </c>
-      <c r="D8" s="36">
+      <c r="E9" s="36">
         <v>47</v>
       </c>
-      <c r="E8" s="37">
+      <c r="F9" s="37">
         <v>58</v>
       </c>
-      <c r="F8" s="35">
+      <c r="G9" s="35">
         <v>59</v>
       </c>
-      <c r="G8" s="34">
+      <c r="H9" s="34">
         <v>62</v>
       </c>
-      <c r="H8" s="38">
+      <c r="I9" s="38">
         <v>63</v>
       </c>
-      <c r="I8" s="37">
+      <c r="J9" s="37">
         <v>106</v>
       </c>
-      <c r="J8" s="35">
+      <c r="K9" s="35">
         <v>107</v>
       </c>
-      <c r="K8" s="34">
+      <c r="L9" s="34">
         <v>110</v>
       </c>
-      <c r="L8" s="36">
+      <c r="M9" s="36">
         <v>111</v>
       </c>
-      <c r="M8" s="37">
+      <c r="N9" s="37">
         <v>122</v>
       </c>
-      <c r="N8" s="35">
+      <c r="O9" s="35">
         <v>123</v>
       </c>
-      <c r="O8" s="34">
+      <c r="P9" s="34">
         <v>126</v>
       </c>
-      <c r="P8" s="39">
+      <c r="Q9" s="39">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="A9" s="19">
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" thickTop="1">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19">
         <v>128</v>
       </c>
-      <c r="B9" s="20">
+      <c r="C10" s="20">
         <v>129</v>
       </c>
-      <c r="C9" s="19">
+      <c r="D10" s="19">
         <v>132</v>
       </c>
-      <c r="D9" s="21">
+      <c r="E10" s="21">
         <v>133</v>
       </c>
-      <c r="E9" s="22">
+      <c r="F10" s="22">
         <v>144</v>
       </c>
-      <c r="F9" s="20">
+      <c r="G10" s="20">
         <v>145</v>
       </c>
-      <c r="G9" s="19">
+      <c r="H10" s="19">
         <v>148</v>
       </c>
-      <c r="H9" s="32">
+      <c r="I10" s="32">
         <v>149</v>
       </c>
-      <c r="I9" s="22">
+      <c r="J10" s="22">
         <v>192</v>
       </c>
-      <c r="J9" s="20">
+      <c r="K10" s="20">
         <v>193</v>
       </c>
-      <c r="K9" s="19">
+      <c r="L10" s="19">
         <v>196</v>
       </c>
-      <c r="L9" s="21">
+      <c r="M10" s="21">
         <v>197</v>
       </c>
-      <c r="M9" s="22">
+      <c r="N10" s="22">
         <v>208</v>
       </c>
-      <c r="N9" s="20">
+      <c r="O10" s="20">
         <v>209</v>
       </c>
-      <c r="O9" s="19">
+      <c r="P10" s="19">
         <v>212</v>
       </c>
-      <c r="P9" s="40">
+      <c r="Q10" s="40">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5">
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
         <v>130</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C11" s="2">
         <v>131</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D11" s="5">
         <v>134</v>
       </c>
-      <c r="D10" s="17">
+      <c r="E11" s="17">
         <v>135</v>
       </c>
-      <c r="E10" s="14">
+      <c r="F11" s="14">
         <v>146</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>147</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H11" s="5">
         <v>150</v>
       </c>
-      <c r="H10" s="30">
+      <c r="I11" s="30">
         <v>151</v>
       </c>
-      <c r="I10" s="14">
+      <c r="J11" s="14">
         <v>194</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>195</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L11" s="5">
         <v>198</v>
       </c>
-      <c r="L10" s="17">
+      <c r="M11" s="17">
         <v>199</v>
       </c>
-      <c r="M10" s="14">
+      <c r="N11" s="14">
         <v>210</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O11" s="2">
         <v>211</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P11" s="5">
         <v>214</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q11" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="9">
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
         <v>136</v>
       </c>
-      <c r="B11" s="7">
+      <c r="C12" s="7">
         <v>137</v>
       </c>
-      <c r="C11" s="9">
+      <c r="D12" s="9">
         <v>140</v>
       </c>
-      <c r="D11" s="16">
+      <c r="E12" s="16">
         <v>141</v>
       </c>
-      <c r="E11" s="13">
+      <c r="F12" s="13">
         <v>152</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G12" s="7">
         <v>153</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H12" s="9">
         <v>156</v>
       </c>
-      <c r="H11" s="29">
+      <c r="I12" s="29">
         <v>157</v>
       </c>
-      <c r="I11" s="13">
+      <c r="J12" s="13">
         <v>200</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K12" s="7">
         <v>201</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L12" s="9">
         <v>204</v>
       </c>
-      <c r="L11" s="16">
+      <c r="M12" s="16">
         <v>205</v>
       </c>
-      <c r="M11" s="13">
+      <c r="N12" s="13">
         <v>216</v>
       </c>
-      <c r="N11" s="7">
+      <c r="O12" s="7">
         <v>217</v>
       </c>
-      <c r="O11" s="9">
+      <c r="P12" s="9">
         <v>220</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q12" s="8">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="24">
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24">
         <v>138</v>
       </c>
-      <c r="B12" s="25">
+      <c r="C13" s="25">
         <v>139</v>
       </c>
-      <c r="C12" s="24">
+      <c r="D13" s="24">
         <v>142</v>
       </c>
-      <c r="D12" s="26">
+      <c r="E13" s="26">
         <v>143</v>
       </c>
-      <c r="E12" s="27">
+      <c r="F13" s="27">
         <v>154</v>
       </c>
-      <c r="F12" s="25">
+      <c r="G13" s="25">
         <v>155</v>
       </c>
-      <c r="G12" s="24">
+      <c r="H13" s="24">
         <v>158</v>
       </c>
-      <c r="H12" s="31">
+      <c r="I13" s="31">
         <v>159</v>
       </c>
-      <c r="I12" s="27">
+      <c r="J13" s="27">
         <v>202</v>
       </c>
-      <c r="J12" s="25">
+      <c r="K13" s="25">
         <v>203</v>
       </c>
-      <c r="K12" s="24">
+      <c r="L13" s="24">
         <v>206</v>
       </c>
-      <c r="L12" s="26">
+      <c r="M13" s="26">
         <v>207</v>
       </c>
-      <c r="M12" s="27">
+      <c r="N13" s="27">
         <v>218</v>
       </c>
-      <c r="N12" s="25">
+      <c r="O13" s="25">
         <v>219</v>
       </c>
-      <c r="O12" s="24">
+      <c r="P13" s="24">
         <v>222</v>
       </c>
-      <c r="P12" s="28">
+      <c r="Q13" s="28">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="19">
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19">
         <v>160</v>
       </c>
-      <c r="B13" s="20">
+      <c r="C14" s="20">
         <v>161</v>
       </c>
-      <c r="C13" s="19">
+      <c r="D14" s="19">
         <v>164</v>
       </c>
-      <c r="D13" s="21">
+      <c r="E14" s="21">
         <v>165</v>
       </c>
-      <c r="E13" s="22">
+      <c r="F14" s="22">
         <v>176</v>
       </c>
-      <c r="F13" s="20">
+      <c r="G14" s="20">
         <v>177</v>
       </c>
-      <c r="G13" s="19">
+      <c r="H14" s="19">
         <v>180</v>
       </c>
-      <c r="H13" s="32">
+      <c r="I14" s="32">
         <v>181</v>
       </c>
-      <c r="I13" s="22">
+      <c r="J14" s="22">
         <v>224</v>
       </c>
-      <c r="J13" s="20">
+      <c r="K14" s="20">
         <v>225</v>
       </c>
-      <c r="K13" s="19">
+      <c r="L14" s="19">
         <v>228</v>
       </c>
-      <c r="L13" s="21">
+      <c r="M14" s="21">
         <v>229</v>
       </c>
-      <c r="M13" s="22">
+      <c r="N14" s="22">
         <v>240</v>
       </c>
-      <c r="N13" s="20">
+      <c r="O14" s="20">
         <v>241</v>
       </c>
-      <c r="O13" s="19">
+      <c r="P14" s="19">
         <v>244</v>
       </c>
-      <c r="P13" s="23">
+      <c r="Q14" s="23">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="5">
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
         <v>162</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C15" s="2">
         <v>163</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D15" s="5">
         <v>166</v>
       </c>
-      <c r="D14" s="17">
+      <c r="E15" s="17">
         <v>167</v>
       </c>
-      <c r="E14" s="14">
+      <c r="F15" s="14">
         <v>178</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>179</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H15" s="5">
         <v>182</v>
       </c>
-      <c r="H14" s="30">
+      <c r="I15" s="30">
         <v>183</v>
       </c>
-      <c r="I14" s="14">
+      <c r="J15" s="14">
         <v>226</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K15" s="2">
         <v>227</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L15" s="5">
         <v>230</v>
       </c>
-      <c r="L14" s="17">
+      <c r="M15" s="17">
         <v>231</v>
       </c>
-      <c r="M14" s="14">
+      <c r="N15" s="14">
         <v>242</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O15" s="2">
         <v>243</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P15" s="5">
         <v>246</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q15" s="3">
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="9">
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
         <v>168</v>
       </c>
-      <c r="B15" s="7">
+      <c r="C16" s="7">
         <v>169</v>
       </c>
-      <c r="C15" s="9">
+      <c r="D16" s="9">
         <v>172</v>
       </c>
-      <c r="D15" s="16">
+      <c r="E16" s="16">
         <v>173</v>
       </c>
-      <c r="E15" s="13">
+      <c r="F16" s="13">
         <v>184</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G16" s="7">
         <v>185</v>
       </c>
-      <c r="G15" s="9">
+      <c r="H16" s="9">
         <v>188</v>
       </c>
-      <c r="H15" s="29">
+      <c r="I16" s="29">
         <v>189</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J16" s="13">
         <v>232</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K16" s="7">
         <v>233</v>
       </c>
-      <c r="K15" s="9">
+      <c r="L16" s="9">
         <v>236</v>
       </c>
-      <c r="L15" s="16">
+      <c r="M16" s="16">
         <v>237</v>
       </c>
-      <c r="M15" s="13">
+      <c r="N16" s="13">
         <v>248</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O16" s="7">
         <v>249</v>
       </c>
-      <c r="O15" s="9">
+      <c r="P16" s="9">
         <v>252</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q16" s="8">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="6">
+    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
         <v>170</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C17" s="4">
         <v>171</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D17" s="6">
         <v>174</v>
       </c>
-      <c r="D16" s="18">
+      <c r="E17" s="18">
         <v>175</v>
       </c>
-      <c r="E16" s="15">
+      <c r="F17" s="15">
         <v>186</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G17" s="4">
         <v>187</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H17" s="6">
         <v>190</v>
       </c>
-      <c r="H16" s="33">
+      <c r="I17" s="33">
         <v>191</v>
       </c>
-      <c r="I16" s="15">
+      <c r="J17" s="15">
         <v>234</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K17" s="4">
         <v>235</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L17" s="6">
         <v>238</v>
       </c>
-      <c r="L16" s="18">
+      <c r="M17" s="18">
         <v>239</v>
       </c>
-      <c r="M16" s="15">
+      <c r="N17" s="15">
         <v>250</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O17" s="4">
         <v>251</v>
       </c>
-      <c r="O16" s="11">
+      <c r="P17" s="11">
         <v>254</v>
       </c>
-      <c r="P16" s="12">
+      <c r="Q17" s="12">
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="15:16">
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+    <row r="18" spans="1:17">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
     </row>
-    <row r="18" spans="15:16">
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+    <row r="19" spans="1:17">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
